--- a/stock_predictor_ai/data/company_sentiment_ready/AAPL_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/AAPL_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11219"/>
+  <dimension ref="A1:B11280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90193,6 +90193,494 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11220">
+      <c r="A11220" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B11220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11221">
+      <c r="A11221" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B11221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11222">
+      <c r="A11222" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B11222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11223">
+      <c r="A11223" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B11223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11224">
+      <c r="A11224" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B11224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11225">
+      <c r="A11225" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B11225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11226">
+      <c r="A11226" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B11226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11227">
+      <c r="A11227" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B11227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11228">
+      <c r="A11228" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B11228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11229">
+      <c r="A11229" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B11229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11230">
+      <c r="A11230" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B11230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11231">
+      <c r="A11231" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B11231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11232">
+      <c r="A11232" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B11232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11233">
+      <c r="A11233" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B11233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11234">
+      <c r="A11234" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B11234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11235">
+      <c r="A11235" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B11235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11236">
+      <c r="A11236" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B11236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11237">
+      <c r="A11237" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B11237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11238">
+      <c r="A11238" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B11238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11239">
+      <c r="A11239" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B11239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11240">
+      <c r="A11240" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B11240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11241">
+      <c r="A11241" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B11241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11242">
+      <c r="A11242" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B11242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11243">
+      <c r="A11243" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B11243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11244">
+      <c r="A11244" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B11244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11245">
+      <c r="A11245" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B11245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11246">
+      <c r="A11246" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B11246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11247">
+      <c r="A11247" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B11247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11248">
+      <c r="A11248" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B11248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11249">
+      <c r="A11249" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B11249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11250">
+      <c r="A11250" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B11250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11251">
+      <c r="A11251" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B11251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11252">
+      <c r="A11252" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B11252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11253">
+      <c r="A11253" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B11253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11254">
+      <c r="A11254" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B11254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11255">
+      <c r="A11255" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B11255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11256">
+      <c r="A11256" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B11256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11257">
+      <c r="A11257" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B11257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11258">
+      <c r="A11258" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B11258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11259">
+      <c r="A11259" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B11259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11260">
+      <c r="A11260" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B11260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11261">
+      <c r="A11261" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B11261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11262">
+      <c r="A11262" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B11262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11263">
+      <c r="A11263" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B11263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11264">
+      <c r="A11264" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B11264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11265">
+      <c r="A11265" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B11265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11266">
+      <c r="A11266" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B11266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11267">
+      <c r="A11267" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B11267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11268">
+      <c r="A11268" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B11268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11269">
+      <c r="A11269" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B11269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11270">
+      <c r="A11270" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B11270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11271">
+      <c r="A11271" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B11271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11272">
+      <c r="A11272" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B11272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11273">
+      <c r="A11273" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B11273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11274">
+      <c r="A11274" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B11274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11275">
+      <c r="A11275" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B11275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11276">
+      <c r="A11276" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B11276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11277">
+      <c r="A11277" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B11277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11278">
+      <c r="A11278" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B11278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11279">
+      <c r="A11279" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B11279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11280">
+      <c r="A11280" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B11280" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/company_sentiment_ready/AAPL_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/AAPL_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11280"/>
+  <dimension ref="A1:B11281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90681,6 +90681,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11281">
+      <c r="A11281" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B11281" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
